--- a/MM7/Mittelwerte_MM7_korrigiert.xlsx
+++ b/MM7/Mittelwerte_MM7_korrigiert.xlsx
@@ -1,44 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27316"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\R-Projekte\MM7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ADF97D-B6BA-4BE5-A358-E47827BC4575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E9ADF97D-B6BA-4BE5-A358-E47827BC4575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD75AA0-C34D-45E8-8143-B12A9B859C18}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{5F092B14-72ED-4DEB-A52C-9AFF2CEDF6D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" xr2:uid="{5F092B14-72ED-4DEB-A52C-9AFF2CEDF6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle2!$F$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle2!$F$2:$F$67</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Tabelle2!$D$2:$D$67</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Tabelle2!$G$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Tabelle2!$G$2:$G$67</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Tabelle2!$E$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Tabelle2!$E$2:$E$67</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Tabelle2!$A$2:$A$67</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Tabelle2!$B$2:$B$67</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tabelle2!$G$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Tabelle2!$G$2:$G$67</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tabelle2!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Tabelle2!$E$2:$E$67</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$F$2:$F$67</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Tabelle2!$D$2:$D$67</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Tabelle2!$F$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Tabelle2!$F$2:$F$67</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelle2!$D$2:$D$67</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tabelle2!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tabelle2!$E$2:$E$67</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Tabelle2!$F$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tabelle2!$F$2:$F$67</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Tabelle2!$G$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tabelle2!$G$2:$G$67</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Tabelle2!$A$2:$A$67</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Tabelle2!$B$2:$B$67</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +143,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -209,6 +212,15 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -227,12 +239,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Diagrammtitel</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>Diagrammtitel</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{14B0E27A-8E18-4B53-AB4C-09E24C2D90A3}">
@@ -247,11 +284,45 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -263,18 +334,43 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Diagrammtitel</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>Diagrammtitel</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{AA666FC7-68B7-4209-A3EF-632E552BDDBB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Res_i1_dd_f_MW</cx:v>
             </cx:txData>
           </cx:tx>
@@ -287,11 +383,45 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -303,18 +433,43 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Diagrammtitel</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>Diagrammtitel</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{2E6864B6-9F5A-46AE-9462-99F1C819A2FC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Res_i1_ue_w_MW</cx:v>
             </cx:txData>
           </cx:tx>
@@ -329,11 +484,45 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -345,18 +534,43 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Diagrammtitel</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>Diagrammtitel</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{A2105673-2439-4133-A527-5611F308BBE0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Res_i1_ue_f_MW</cx:v>
             </cx:txData>
           </cx:tx>
@@ -369,11 +583,45 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -385,12 +633,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Diagrammtitel</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>Diagrammtitel</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{F86E6C6E-025F-45D4-837A-BFF024053286}">
@@ -403,11 +676,45 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -419,12 +726,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Diagrammtitel</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>Diagrammtitel</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{84C10088-7425-4794-B164-246532509FF5}">
@@ -437,11 +769,45 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -3785,8 +4151,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8620125" y="328612"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3805,9 +4171,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
+                <a:rPr sz="1100"/>
                 <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm endgültig beschädigt.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3863,8 +4229,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8667750" y="3233737"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3883,9 +4249,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
+                <a:rPr sz="1100"/>
                 <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm endgültig beschädigt.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3941,8 +4307,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8705850" y="6157912"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3961,9 +4327,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
+                <a:rPr sz="1100"/>
                 <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm endgültig beschädigt.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4019,8 +4385,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8658225" y="9291637"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4039,9 +4405,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
+                <a:rPr sz="1100"/>
                 <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm endgültig beschädigt.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4097,8 +4463,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8339137" y="12368212"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4117,9 +4483,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
+                <a:rPr sz="1100"/>
                 <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm endgültig beschädigt.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4175,8 +4541,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8329612" y="15263812"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4195,9 +4561,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
+                <a:rPr sz="1100"/>
                 <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm endgültig beschädigt.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4210,7 +4576,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92336199-0AD4-457A-8519-CBC68EEDE184}" name="Tabelle1" displayName="Tabelle1" ref="A1:D68" totalsRowCount="1" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92336199-0AD4-457A-8519-CBC68EEDE184}" name="Tabelle1" displayName="Tabelle1" ref="A1:D67" headerRowDxfId="14">
   <autoFilter ref="A1:D67" xr:uid="{92336199-0AD4-457A-8519-CBC68EEDE184}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4218,10 +4584,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9EFED2D6-E803-4829-B41D-BCFE0503AD13}" name="i1_dd_w_MW" totalsRowFunction="average" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{F0A7CEBE-846F-4757-B226-51D7C0AED200}" name="i1_dd_f_MW" totalsRowFunction="average" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{FF907634-11BE-4E24-90DE-0C586D50373B}" name="i1_ue_w_MW" totalsRowFunction="average" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{059DA6B5-CA47-4423-B6DE-613B46E018C3}" name="i1_ue_f_MW" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{9EFED2D6-E803-4829-B41D-BCFE0503AD13}" name="i1_dd_w_MW" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F0A7CEBE-846F-4757-B226-51D7C0AED200}" name="i1_dd_f_MW" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{FF907634-11BE-4E24-90DE-0C586D50373B}" name="i1_ue_w_MW" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{059DA6B5-CA47-4423-B6DE-613B46E018C3}" name="i1_ue_f_MW" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4249,7 +4615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4545,13 +4911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C47BDD-185F-45CE-8A52-787CD99523F3}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
@@ -4559,7 +4925,7 @@
     <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4573,7 +4939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0.03</v>
       </c>
@@ -4587,7 +4953,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>0.47</v>
       </c>
@@ -4601,7 +4967,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -4615,7 +4981,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4629,7 +4995,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>0.47</v>
       </c>
@@ -4643,7 +5009,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>0.27</v>
       </c>
@@ -4657,7 +5023,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>0.23</v>
       </c>
@@ -4671,7 +5037,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>0.47</v>
       </c>
@@ -4685,7 +5051,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -4699,7 +5065,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>0.17</v>
       </c>
@@ -4713,7 +5079,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>0.2</v>
       </c>
@@ -4727,7 +5093,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>0.8</v>
       </c>
@@ -4741,7 +5107,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -4755,7 +5121,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>0.47</v>
       </c>
@@ -4769,7 +5135,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4783,7 +5149,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>0.13</v>
       </c>
@@ -4797,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>0.3</v>
       </c>
@@ -4811,7 +5177,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>0.43</v>
       </c>
@@ -4825,7 +5191,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>0.03</v>
       </c>
@@ -4839,7 +5205,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>0.56999999999999995</v>
       </c>
@@ -4853,7 +5219,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4867,7 +5233,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4881,7 +5247,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>0.47</v>
       </c>
@@ -4895,7 +5261,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>0.03</v>
       </c>
@@ -4909,7 +5275,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4923,7 +5289,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>0.47</v>
       </c>
@@ -4937,7 +5303,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>0.1</v>
       </c>
@@ -4951,7 +5317,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4965,7 +5331,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -4979,7 +5345,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -4993,7 +5359,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>0.17</v>
       </c>
@@ -5007,7 +5373,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>0.3</v>
       </c>
@@ -5021,7 +5387,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>0.13</v>
       </c>
@@ -5035,7 +5401,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5049,7 +5415,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>0.1</v>
       </c>
@@ -5063,7 +5429,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>0.03</v>
       </c>
@@ -5077,7 +5443,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5091,7 +5457,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>0.3</v>
       </c>
@@ -5105,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>0.27</v>
       </c>
@@ -5119,7 +5485,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>0.8</v>
       </c>
@@ -5133,7 +5499,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>0.13</v>
       </c>
@@ -5147,7 +5513,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>0.37</v>
       </c>
@@ -5161,7 +5527,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>0.56999999999999995</v>
       </c>
@@ -5175,7 +5541,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>0.93</v>
       </c>
@@ -5189,7 +5555,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>0.5</v>
       </c>
@@ -5203,7 +5569,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>0.47</v>
       </c>
@@ -5217,7 +5583,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>0.56999999999999995</v>
       </c>
@@ -5231,7 +5597,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>0.17</v>
       </c>
@@ -5245,7 +5611,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>0.13</v>
       </c>
@@ -5259,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>0.13</v>
       </c>
@@ -5273,7 +5639,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>0.33</v>
       </c>
@@ -5287,7 +5653,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -5301,7 +5667,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>0.13</v>
       </c>
@@ -5315,7 +5681,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>0.5</v>
       </c>
@@ -5329,7 +5695,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>0.37</v>
       </c>
@@ -5343,7 +5709,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>0.13</v>
       </c>
@@ -5357,7 +5723,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>0.03</v>
       </c>
@@ -5371,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>0.3</v>
       </c>
@@ -5385,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>0.87</v>
       </c>
@@ -5399,7 +5765,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>0.13</v>
       </c>
@@ -5413,7 +5779,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>0.27</v>
       </c>
@@ -5427,7 +5793,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>0.47</v>
       </c>
@@ -5441,7 +5807,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>0.1</v>
       </c>
@@ -5455,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>0.17</v>
       </c>
@@ -5469,7 +5835,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>0.17</v>
       </c>
@@ -5483,7 +5849,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>0.77</v>
       </c>
@@ -5495,24 +5861,6 @@
       </c>
       <c r="D67" s="1">
         <v>1.47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <f>SUBTOTAL(101,Tabelle1[i1_dd_w_MW])</f>
-        <v>0.29363636363636381</v>
-      </c>
-      <c r="B68" s="1">
-        <f>SUBTOTAL(101,Tabelle1[i1_dd_f_MW])</f>
-        <v>0.81924242424242388</v>
-      </c>
-      <c r="C68" s="1">
-        <f>SUBTOTAL(101,Tabelle1[i1_ue_w_MW])</f>
-        <v>1.0542424242424246</v>
-      </c>
-      <c r="D68" s="1">
-        <f>SUBTOTAL(101,Tabelle1[i1_ue_f_MW])</f>
-        <v>1.3113636363636358</v>
       </c>
     </row>
   </sheetData>
@@ -5527,11 +5875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C915A6-6F37-4052-AC44-A82880571B40}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
@@ -5539,7 +5887,7 @@
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5553,7 +5901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.27</v>
@@ -5562,24 +5910,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.26363636363636378</v>
-      </c>
-      <c r="E2" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.51924242424242384</v>
-      </c>
-      <c r="F2" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G2" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.28136363636363582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.5</v>
@@ -5588,24 +5936,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.22999999999999998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.17636363636363617</v>
-      </c>
-      <c r="E3" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.15075757575757609</v>
-      </c>
-      <c r="F3" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>4.5757575757575442E-2</v>
-      </c>
-      <c r="G3" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>1.8636363636364228E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.63000000000000012</v>
@@ -5614,24 +5962,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>6.3636363636361826E-3</v>
-      </c>
-      <c r="E4" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F4" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G4" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.4886363636363642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.8600000000000001</v>
@@ -5640,24 +5988,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.2236363636363638</v>
-      </c>
-      <c r="E5" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F5" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>4.5757575757575442E-2</v>
-      </c>
-      <c r="G5" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.18136363636363595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.5</v>
@@ -5666,24 +6014,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>-7.0000000000000062E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.17636363636363617</v>
-      </c>
-      <c r="E6" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.15075757575757609</v>
-      </c>
-      <c r="F6" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>4.5757575757575442E-2</v>
-      </c>
-      <c r="G6" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.28136363636363582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.5</v>
@@ -5692,24 +6040,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-2.3636363636363789E-2</v>
-      </c>
-      <c r="E7" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-4.9242424242423866E-2</v>
-      </c>
-      <c r="F7" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G7" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.14136363636363591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.74</v>
@@ -5718,24 +6066,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.42999999999999994</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-6.3636363636363796E-2</v>
-      </c>
-      <c r="E8" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.15075757575757609</v>
-      </c>
-      <c r="F8" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G8" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.11863636363636409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.43000000000000005</v>
@@ -5744,24 +6092,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>-5.9999999999999831E-2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.17636363636363617</v>
-      </c>
-      <c r="E9" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F9" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>7.5757575757575246E-2</v>
-      </c>
-      <c r="G9" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.24136363636363578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.4</v>
@@ -5770,24 +6118,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.27</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1936363636363638</v>
-      </c>
-      <c r="E10" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.31924242424242388</v>
-      </c>
-      <c r="F10" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G10" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-1.1363636363635798E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.73</v>
@@ -5796,24 +6144,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.16999999999999993</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.12363636363636379</v>
-      </c>
-      <c r="E11" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F11" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G11" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.11136363636363589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.7</v>
@@ -5822,24 +6170,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-9.3636363636363795E-2</v>
-      </c>
-      <c r="E12" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F12" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G12" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.28136363636363582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>9.9999999999999978E-2</v>
@@ -5848,24 +6196,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.50636363636363624</v>
-      </c>
-      <c r="E13" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F13" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>4.5757575757575442E-2</v>
-      </c>
-      <c r="G13" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.14136363636363591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.43000000000000005</v>
@@ -5874,24 +6222,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.34000000000000008</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.20636363636363619</v>
-      </c>
-      <c r="E14" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F14" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G14" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>5.8636363636364264E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.20000000000000007</v>
@@ -5900,24 +6248,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>-7.0000000000000062E-2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.17636363636363617</v>
-      </c>
-      <c r="E15" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.14924242424242384</v>
-      </c>
-      <c r="F15" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>4.5757575757575442E-2</v>
-      </c>
-      <c r="G15" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.28136363636363582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.49999999999999994</v>
@@ -5926,24 +6274,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.2236363636363638</v>
-      </c>
-      <c r="E16" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.24924242424242393</v>
-      </c>
-      <c r="F16" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G16" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>8.8636363636364068E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.77</v>
@@ -5952,24 +6300,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1636363636363638</v>
-      </c>
-      <c r="E17" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F17" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G17" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.31136363636363584</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.66999999999999993</v>
@@ -5978,24 +6326,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>6.3636363636361826E-3</v>
-      </c>
-      <c r="E18" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.15075757575757609</v>
-      </c>
-      <c r="F18" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G18" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>8.8636363636364068E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.5</v>
@@ -6004,24 +6352,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.34000000000000008</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.13636363636363619</v>
-      </c>
-      <c r="E19" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F19" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G19" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>5.8636363636364264E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.94</v>
@@ -6030,24 +6378,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>1.37</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.26363636363636378</v>
-      </c>
-      <c r="E20" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.15075757575757609</v>
-      </c>
-      <c r="F20" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G20" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>1.0586363636363643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>-6.9999999999999951E-2</v>
@@ -6056,24 +6404,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.1399999999999999</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.27636363636363614</v>
-      </c>
-      <c r="E21" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.31924242424242388</v>
-      </c>
-      <c r="F21" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G21" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.14136363636363591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.8</v>
@@ -6082,24 +6430,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.2236363636363638</v>
-      </c>
-      <c r="E22" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>5.0757575757576112E-2</v>
-      </c>
-      <c r="F22" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G22" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.24136363636363578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.46</v>
@@ -6108,24 +6456,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.2236363636363638</v>
-      </c>
-      <c r="E23" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.28924242424242386</v>
-      </c>
-      <c r="F23" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G23" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.28136363636363582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.26</v>
@@ -6134,24 +6482,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>-5.9999999999999831E-2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.17636363636363617</v>
-      </c>
-      <c r="E24" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-8.9242424242423901E-2</v>
-      </c>
-      <c r="F24" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F24" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>7.5757575757575246E-2</v>
-      </c>
-      <c r="G24" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.24136363636363578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.87</v>
@@ -6160,24 +6508,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.27</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.26363636363636378</v>
-      </c>
-      <c r="E25" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F25" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F25" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G25" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-4.1363636363635825E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.83000000000000007</v>
@@ -6186,24 +6534,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.2236363636363638</v>
-      </c>
-      <c r="E26" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F26" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F26" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G26" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>5.8636363636364264E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.43000000000000005</v>
@@ -6212,24 +6560,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.16999999999999993</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.17636363636363617</v>
-      </c>
-      <c r="E27" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F27" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G27" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.14136363636363591</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.83000000000000007</v>
@@ -6238,24 +6586,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1936363636363638</v>
-      </c>
-      <c r="E28" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F28" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G28" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.21136363636363575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.8600000000000001</v>
@@ -6264,24 +6612,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>1.0299999999999998</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.2236363636363638</v>
-      </c>
-      <c r="E29" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F29" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F29" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>4.5757575757575442E-2</v>
-      </c>
-      <c r="G29" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.81863636363636405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.7</v>
@@ -6290,24 +6638,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.73</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.29363636363636381</v>
-      </c>
-      <c r="E30" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.11924242424242393</v>
-      </c>
-      <c r="F30" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G30" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.41863636363636414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>-0.37</v>
@@ -6316,24 +6664,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>-0.42999999999999994</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.70636363636363619</v>
-      </c>
-      <c r="E31" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.18924242424242388</v>
-      </c>
-      <c r="F31" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F31" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>0.57575757575757525</v>
-      </c>
-      <c r="G31" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.11136363636363589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.7</v>
@@ -6342,24 +6690,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.62999999999999989</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.12363636363636379</v>
-      </c>
-      <c r="E32" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>5.0757575757576112E-2</v>
-      </c>
-      <c r="F32" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F32" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G32" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.31863636363636405</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.43</v>
@@ -6368,24 +6716,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.16999999999999993</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>6.3636363636361826E-3</v>
-      </c>
-      <c r="E33" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E33" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-8.9242424242423901E-2</v>
-      </c>
-      <c r="F33" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F33" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G33" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.14136363636363591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.87</v>
@@ -6394,24 +6742,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1636363636363638</v>
-      </c>
-      <c r="E34" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E34" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.18075757575757612</v>
-      </c>
-      <c r="F34" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F34" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G34" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G34" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.24136363636363578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.8600000000000001</v>
@@ -6420,24 +6768,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.2236363636363638</v>
-      </c>
-      <c r="E35" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E35" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F35" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F35" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G35" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G35" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>5.8636363636364264E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.77</v>
@@ -6446,24 +6794,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1936363636363638</v>
-      </c>
-      <c r="E36" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E36" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>5.0757575757576112E-2</v>
-      </c>
-      <c r="F36" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F36" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G36" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G36" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.21136363636363575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.5</v>
@@ -6472,24 +6820,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.26363636363636378</v>
-      </c>
-      <c r="E37" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E37" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.28924242424242386</v>
-      </c>
-      <c r="F37" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F37" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G37" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G37" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.24136363636363578</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.89999999999999991</v>
@@ -6498,24 +6846,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.42999999999999994</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.2236363636363638</v>
-      </c>
-      <c r="E38" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E38" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.15075757575757609</v>
-      </c>
-      <c r="F38" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F38" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G38" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G38" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.18863636363636416</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.63000000000000012</v>
@@ -6524,24 +6872,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>6.3636363636361826E-3</v>
-      </c>
-      <c r="E39" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F39" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F39" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G39" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G39" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.31136363636363584</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.66</v>
@@ -6550,24 +6898,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-2.3636363636363789E-2</v>
-      </c>
-      <c r="E40" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E40" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F40" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F40" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G40" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G40" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.21136363636363575</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.16999999999999993</v>
@@ -6576,24 +6924,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.12999999999999989</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.50636363636363624</v>
-      </c>
-      <c r="E41" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E41" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.15075757575757609</v>
-      </c>
-      <c r="F41" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F41" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>4.5757575757575442E-2</v>
-      </c>
-      <c r="G41" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G41" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-8.1363636363635861E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.4</v>
@@ -6602,24 +6950,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1636363636363638</v>
-      </c>
-      <c r="E42" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E42" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.28924242424242386</v>
-      </c>
-      <c r="F42" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F42" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G42" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G42" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-1.1363636363635798E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.63</v>
@@ -6628,24 +6976,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.35999999999999988</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>7.6363636363636189E-2</v>
-      </c>
-      <c r="E43" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E43" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.18075757575757612</v>
-      </c>
-      <c r="F43" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F43" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G43" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.11863636363636409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.3600000000000001</v>
@@ -6654,24 +7002,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.27636363636363614</v>
-      </c>
-      <c r="E44" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E44" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F44" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F44" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G44" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G44" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.21136363636363575</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>-6.0000000000000053E-2</v>
@@ -6680,24 +7028,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.63636363636363624</v>
-      </c>
-      <c r="E45" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E45" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>5.0757575757576112E-2</v>
-      </c>
-      <c r="F45" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F45" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>4.5757575757575442E-2</v>
-      </c>
-      <c r="G45" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G45" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>8.8636363636364068E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>-9.9999999999999978E-2</v>
@@ -6706,24 +7054,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.32999999999999985</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.20636363636363619</v>
-      </c>
-      <c r="E46" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E46" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.41924242424242386</v>
-      </c>
-      <c r="F46" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F46" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G46" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G46" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>8.8636363636364068E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.4</v>
@@ -6732,24 +7080,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.17636363636363617</v>
-      </c>
-      <c r="E47" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E47" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>5.0757575757576112E-2</v>
-      </c>
-      <c r="F47" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F47" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G47" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G47" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.35863636363636409</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.43000000000000005</v>
@@ -6758,24 +7106,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.27</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.27636363636363614</v>
-      </c>
-      <c r="E48" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E48" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.18075757575757612</v>
-      </c>
-      <c r="F48" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F48" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G48" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G48" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-4.1363636363635825E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.73</v>
@@ -6784,24 +7132,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.12363636363636379</v>
-      </c>
-      <c r="E49" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E49" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F49" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F49" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G49" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G49" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.11136363636363589</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.6</v>
@@ -6810,24 +7158,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>-7.0000000000000062E-2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1636363636363638</v>
-      </c>
-      <c r="E50" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E50" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-8.9242424242423901E-2</v>
-      </c>
-      <c r="F50" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F50" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G50" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G50" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.31136363636363584</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.37</v>
@@ -6836,24 +7184,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.16999999999999993</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1636363636363638</v>
-      </c>
-      <c r="E51" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E51" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.31924242424242388</v>
-      </c>
-      <c r="F51" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F51" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G51" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G51" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.14136363636363591</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.16999999999999998</v>
@@ -6862,24 +7210,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.55999999999999983</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>3.6363636363636209E-2</v>
-      </c>
-      <c r="E52" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E52" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.31924242424242388</v>
-      </c>
-      <c r="F52" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F52" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G52" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G52" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.31863636363636405</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>1</v>
@@ -6888,24 +7236,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>1.1299999999999999</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.29363636363636381</v>
-      </c>
-      <c r="E53" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E53" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.18075757575757612</v>
-      </c>
-      <c r="F53" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F53" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G53" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G53" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.81863636363636405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.84</v>
@@ -6914,24 +7262,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.8</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1636363636363638</v>
-      </c>
-      <c r="E54" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E54" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.15075757575757609</v>
-      </c>
-      <c r="F54" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F54" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G54" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G54" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.4886363636363642</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.4</v>
@@ -6940,24 +7288,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.20636363636363619</v>
-      </c>
-      <c r="E55" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E55" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F55" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F55" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G55" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G55" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.21136363636363575</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.56000000000000005</v>
@@ -6966,24 +7314,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.37000000000000011</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>7.6363636363636189E-2</v>
-      </c>
-      <c r="E56" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F56" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G56" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>5.8636363636364264E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.74</v>
@@ -6992,24 +7340,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1636363636363638</v>
-      </c>
-      <c r="E57" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E57" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>5.0757575757576112E-2</v>
-      </c>
-      <c r="F57" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F57" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G57" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G57" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.21136363636363575</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.9</v>
@@ -7018,24 +7366,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.26363636363636378</v>
-      </c>
-      <c r="E58" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E58" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.11075757575757617</v>
-      </c>
-      <c r="F58" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F58" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G58" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G58" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.31136363636363584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.47000000000000003</v>
@@ -7044,24 +7392,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>6.3636363636361826E-3</v>
-      </c>
-      <c r="E59" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E59" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-4.9242424242423866E-2</v>
-      </c>
-      <c r="F59" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F59" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G59" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G59" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.31136363636363584</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>3.0000000000000027E-2</v>
@@ -7070,24 +7418,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.57636363636363619</v>
-      </c>
-      <c r="E60" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E60" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F60" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F60" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>1.5757575757575415E-2</v>
-      </c>
-      <c r="G60" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G60" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-4.1363636363635825E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.74</v>
@@ -7096,24 +7444,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1636363636363638</v>
-      </c>
-      <c r="E61" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E61" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>5.0757575757576112E-2</v>
-      </c>
-      <c r="F61" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F61" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>0.21575757575757537</v>
-      </c>
-      <c r="G61" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G61" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>1.8636363636364228E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.53</v>
@@ -7122,24 +7470,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.24</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-2.3636363636363789E-2</v>
-      </c>
-      <c r="E62" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E62" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-1.9242424242423839E-2</v>
-      </c>
-      <c r="F62" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F62" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G62" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G62" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-4.1363636363635825E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.4</v>
@@ -7148,24 +7496,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.17636363636363617</v>
-      </c>
-      <c r="E63" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E63" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>5.0757575757576112E-2</v>
-      </c>
-      <c r="F63" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F63" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>0.34575757575757526</v>
-      </c>
-      <c r="G63" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G63" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.4886363636363642</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0</v>
@@ -7174,24 +7522,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.1936363636363638</v>
-      </c>
-      <c r="E64" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E64" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>-0.71924242424242391</v>
-      </c>
-      <c r="F64" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F64" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G64" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G64" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>-0.31136363636363584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.73</v>
@@ -7200,24 +7548,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.8</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.12363636363636379</v>
-      </c>
-      <c r="E65" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E65" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F65" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F65" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-2.4242424242424621E-2</v>
-      </c>
-      <c r="G65" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G65" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.51863636363636423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.83</v>
@@ -7226,24 +7574,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.33000000000000007</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>-0.12363636363636379</v>
-      </c>
-      <c r="E66" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E66" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>0.18075757575757612</v>
-      </c>
-      <c r="F66" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F66" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G66" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G66" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>1.8636363636364228E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#This Row],[i1_dd_w_MW]]</f>
         <v>0.13</v>
@@ -7252,24 +7600,24 @@
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#This Row],[i1_ue_w_MW]]</f>
         <v>0.47</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_w_MW]]-Tabelle1[[#Totals],[i1_dd_w_MW]]</f>
-        <v>0.47636363636363621</v>
-      </c>
-      <c r="E67" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="E67" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_dd_f_MW]]-Tabelle1[[#Totals],[i1_dd_f_MW]]</f>
-        <v>8.0757575757576139E-2</v>
-      </c>
-      <c r="F67" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="F67" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_w_MW]]-Tabelle1[[#Totals],[i1_ue_w_MW]]</f>
-        <v>-5.4242424242424647E-2</v>
-      </c>
-      <c r="G67" s="1">
+        <v>#REF!</v>
+      </c>
+      <c r="G67" s="1" t="e">
         <f>Tabelle1[[#This Row],[i1_ue_f_MW]]-Tabelle1[[#Totals],[i1_ue_f_MW]]</f>
-        <v>0.15863636363636413</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
